--- a/docs/nn_statistics.xlsx
+++ b/docs/nn_statistics.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cvijetinm\Desktop\neuronske\Neural_Networks\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E22177A-C2A4-44E7-BAC7-9E457A26322F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
   <si>
     <t>modification</t>
   </si>
@@ -150,71 +159,204 @@
   <si>
     <t>all negatives are used</t>
   </si>
+  <si>
+    <t>QA_RNN</t>
+  </si>
+  <si>
+    <t>0.9107</t>
+  </si>
+  <si>
+    <t>0.4893</t>
+  </si>
+  <si>
+    <t>0.8743</t>
+  </si>
+  <si>
+    <t>0.4982</t>
+  </si>
+  <si>
+    <t>0.4868</t>
+  </si>
+  <si>
+    <t>0.8243</t>
+  </si>
+  <si>
+    <t>0.49535</t>
+  </si>
+  <si>
+    <t>0.9143</t>
+  </si>
+  <si>
+    <t>0.5056</t>
+  </si>
+  <si>
+    <t>ealry_stopping</t>
+  </si>
+  <si>
+    <t>0.52696</t>
+  </si>
+  <si>
+    <t>QA_RNN-GLOVE</t>
+  </si>
+  <si>
+    <t>0.6549</t>
+  </si>
+  <si>
+    <t>0.5151</t>
+  </si>
+  <si>
+    <t>0.7306</t>
+  </si>
+  <si>
+    <t>0.4888</t>
+  </si>
+  <si>
+    <t>0.5934</t>
+  </si>
+  <si>
+    <t>0.5441</t>
+  </si>
+  <si>
+    <t>0.88524</t>
+  </si>
+  <si>
+    <t>0.5148</t>
+  </si>
+  <si>
+    <t>RNN and RNN + Glove 6B statistics</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -404,27 +546,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="25.5"/>
-    <col customWidth="1" min="6" max="6" width="32.38"/>
-    <col customWidth="1" min="7" max="7" width="21.88"/>
-    <col customWidth="1" min="8" max="8" width="22.75"/>
-    <col customWidth="1" min="18" max="18" width="14.38"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +622,7 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -499,7 +646,7 @@
         <v>0.05</v>
       </c>
       <c r="K2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="3">
         <v>0.1</v>
@@ -517,7 +664,7 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -538,13 +685,13 @@
         <v>0.49</v>
       </c>
       <c r="J3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M3" s="3">
         <v>0.49</v>
@@ -559,7 +706,7 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -571,7 +718,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>17</v>
@@ -603,7 +750,7 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" ht="18.75" customHeight="1">
+    <row r="5" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -647,7 +794,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -693,7 +840,7 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" ht="19.5" customHeight="1">
+    <row r="7" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -704,7 +851,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3">
         <v>0.38</v>
@@ -725,7 +872,7 @@
         <v>0.49</v>
       </c>
       <c r="K7" s="3">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L7" s="3">
         <v>0.52</v>
@@ -743,7 +890,7 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" ht="22.5" customHeight="1">
+    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -754,7 +901,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3">
         <v>0.38</v>
@@ -775,7 +922,7 @@
         <v>0.49</v>
       </c>
       <c r="K8" s="3">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L8" s="3">
         <v>0.52</v>
@@ -793,7 +940,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -802,10 +949,10 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3" t="s">
@@ -837,7 +984,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -846,7 +993,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E10" s="3">
         <v>0.69</v>
@@ -881,7 +1028,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -890,10 +1037,10 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3" t="s">
@@ -925,7 +1072,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -934,10 +1081,10 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="3" t="s">
@@ -948,7 +1095,7 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K12" s="3">
         <v>0.45</v>
@@ -969,7 +1116,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -980,7 +1127,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
         <v>0.75</v>
@@ -1011,7 +1158,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1020,7 +1167,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
         <v>0.68</v>
@@ -1039,7 +1186,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="3">
-        <v>0.7264</v>
+        <v>0.72640000000000005</v>
       </c>
       <c r="N14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1050,14 +1197,14 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0.7</v>
@@ -1070,13 +1217,13 @@
         <v>21</v>
       </c>
       <c r="I15" s="3">
-        <v>0.6863</v>
+        <v>0.68630000000000002</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="3">
-        <v>0.695</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="N15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1087,14 +1234,14 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
         <v>0.7</v>
@@ -1107,17 +1254,17 @@
         <v>21</v>
       </c>
       <c r="I16" s="3">
-        <v>0.686</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="3">
-        <v>0.695</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="N16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1133,7 +1280,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1149,7 +1296,227 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="5">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="6">
+        <v>30</v>
+      </c>
+      <c r="F20" s="7">
+        <v>4.5833333333333337E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="5">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="6">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7">
+        <v>4.5833333333333337E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="5">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="6">
+        <v>30</v>
+      </c>
+      <c r="F22" s="7">
+        <v>4.5833333333333337E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="5">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="5">
+        <v>32</v>
+      </c>
+      <c r="F23" s="7">
+        <v>4.7222222222222221E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="5">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="5">
+        <v>32</v>
+      </c>
+      <c r="F24" s="7">
+        <v>4.7916666666666663E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="5">
+        <v>15</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="5">
+        <v>32</v>
+      </c>
+      <c r="F25" s="7">
+        <v>4.7222222222222221E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="5">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="6">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7">
+        <v>4.5833333333333337E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="5">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="5">
+        <v>30</v>
+      </c>
+      <c r="F28" s="7">
+        <v>4.5833333333333337E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="5">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="5">
+        <v>32</v>
+      </c>
+      <c r="F29" s="7">
+        <v>4.5833333333333337E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="5">
+        <v>10</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="5">
+        <v>32</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A19:F19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/nn_statistics.xlsx
+++ b/docs/nn_statistics.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cvijetinm\Desktop\neuronske\Neural_Networks\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E22177A-C2A4-44E7-BAC7-9E457A26322F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
   <si>
     <t>modification</t>
   </si>
@@ -160,203 +151,80 @@
     <t>all negatives are used</t>
   </si>
   <si>
-    <t>QA_RNN</t>
-  </si>
-  <si>
-    <t>0.9107</t>
-  </si>
-  <si>
-    <t>0.4893</t>
-  </si>
-  <si>
-    <t>0.8743</t>
-  </si>
-  <si>
-    <t>0.4982</t>
-  </si>
-  <si>
-    <t>0.4868</t>
-  </si>
-  <si>
-    <t>0.8243</t>
-  </si>
-  <si>
-    <t>0.49535</t>
-  </si>
-  <si>
-    <t>0.9143</t>
-  </si>
-  <si>
-    <t>0.5056</t>
-  </si>
-  <si>
-    <t>ealry_stopping</t>
-  </si>
-  <si>
-    <t>0.52696</t>
-  </si>
-  <si>
-    <t>QA_RNN-GLOVE</t>
-  </si>
-  <si>
-    <t>0.6549</t>
-  </si>
-  <si>
-    <t>0.5151</t>
-  </si>
-  <si>
-    <t>0.7306</t>
-  </si>
-  <si>
-    <t>0.4888</t>
-  </si>
-  <si>
-    <t>0.5934</t>
-  </si>
-  <si>
-    <t>0.5441</t>
-  </si>
-  <si>
-    <t>0.88524</t>
-  </si>
-  <si>
-    <t>0.5148</t>
-  </si>
-  <si>
-    <t>RNN and RNN + Glove 6B statistics</t>
+    <t>train_loss = losses.TripletLoss(model=model, distance_metric=TripletDistanceMetric.MANHATTAN, triplet_margin=3)</t>
+  </si>
+  <si>
+    <t>2022_07_12_18_12_29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
+  <borders count="1">
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -546,32 +414,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" customWidth="1"/>
-    <col min="18" max="18" width="14.33203125" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="25.5"/>
+    <col customWidth="1" min="6" max="6" width="32.38"/>
+    <col customWidth="1" min="7" max="7" width="21.88"/>
+    <col customWidth="1" min="8" max="8" width="22.75"/>
+    <col customWidth="1" min="18" max="18" width="14.38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +485,7 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -646,7 +509,7 @@
         <v>0.05</v>
       </c>
       <c r="K2" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L2" s="3">
         <v>0.1</v>
@@ -654,7 +517,9 @@
       <c r="M2" s="3">
         <v>0.05</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" s="3">
+        <v>0.05</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="3"/>
@@ -664,7 +529,7 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -685,18 +550,20 @@
         <v>0.49</v>
       </c>
       <c r="J3" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K3" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L3" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M3" s="3">
         <v>0.49</v>
       </c>
-      <c r="N3" s="2"/>
+      <c r="N3" s="3">
+        <v>0.49</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="3"/>
@@ -706,7 +573,7 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -718,7 +585,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>17</v>
@@ -727,7 +594,9 @@
       <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>0.68199</v>
+      </c>
       <c r="J4" s="3">
         <v>0.38</v>
       </c>
@@ -740,7 +609,9 @@
       <c r="M4" s="3">
         <v>0.7</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="3">
+        <v>0.6819</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="3"/>
@@ -750,7 +621,7 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -771,7 +642,9 @@
       <c r="H5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>0.688248</v>
+      </c>
       <c r="J5" s="3">
         <v>0.38</v>
       </c>
@@ -784,7 +657,9 @@
       <c r="M5" s="3">
         <v>0.68</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" s="3">
+        <v>0.6834</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="3"/>
@@ -794,7 +669,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -830,7 +705,9 @@
       <c r="M6" s="3">
         <v>0.69</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="3">
+        <v>0.6747</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="3"/>
@@ -840,57 +717,72 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="1">
         <v>0.38</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <v>0.875</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="1">
         <v>0.49</v>
       </c>
-      <c r="K7" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="K7" s="1">
+        <v>0.56</v>
+      </c>
+      <c r="L7" s="1">
         <v>0.52</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="1">
         <v>0.75</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="1">
+        <v>0.73775</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+    </row>
+    <row r="8" ht="21.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -901,7 +793,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E8" s="3">
         <v>0.38</v>
@@ -922,7 +814,7 @@
         <v>0.49</v>
       </c>
       <c r="K8" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="L8" s="3">
         <v>0.52</v>
@@ -930,7 +822,9 @@
       <c r="M8" s="3">
         <v>0.75</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="3">
+        <v>0.73775</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -940,7 +834,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -949,10 +843,10 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="E9" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3" t="s">
@@ -974,7 +868,9 @@
       <c r="M9" s="3">
         <v>0.72</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="3">
+        <v>0.6422</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -984,7 +880,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -993,7 +889,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="E10" s="3">
         <v>0.69</v>
@@ -1018,7 +914,9 @@
       <c r="M10" s="3">
         <v>0.75</v>
       </c>
-      <c r="N10" s="2"/>
+      <c r="N10" s="3">
+        <v>0.536</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1028,7 +926,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1037,10 +935,10 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E11" s="3">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3" t="s">
@@ -1062,7 +960,9 @@
       <c r="M11" s="3">
         <v>0.74</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" s="3">
+        <v>0.4878</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -1072,7 +972,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1081,10 +981,10 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="E12" s="3">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="3" t="s">
@@ -1093,9 +993,11 @@
       <c r="H12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="3">
+        <v>0.74</v>
+      </c>
       <c r="J12" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="K12" s="3">
         <v>0.45</v>
@@ -1106,7 +1008,9 @@
       <c r="M12" s="3">
         <v>0.73</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" s="3">
+        <v>0.536</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -1116,7 +1020,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1127,7 +1031,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" s="3">
         <v>0.75</v>
@@ -1158,7 +1062,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1167,7 +1071,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E14" s="3">
         <v>0.68</v>
@@ -1186,7 +1090,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="3">
-        <v>0.72640000000000005</v>
+        <v>0.7264</v>
       </c>
       <c r="N14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1197,14 +1101,16 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" s="3">
         <v>0.7</v>
@@ -1217,13 +1123,13 @@
         <v>21</v>
       </c>
       <c r="I15" s="3">
-        <v>0.68630000000000002</v>
+        <v>0.6863</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="3">
-        <v>0.69499999999999995</v>
+        <v>0.695</v>
       </c>
       <c r="N15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1234,14 +1140,16 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E16" s="3">
         <v>0.7</v>
@@ -1254,33 +1162,59 @@
         <v>21</v>
       </c>
       <c r="I16" s="3">
-        <v>0.68600000000000005</v>
+        <v>0.686</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="3">
-        <v>0.69499999999999995</v>
+        <v>0.695</v>
       </c>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.822</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.57</v>
+      </c>
       <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="M17" s="3">
+        <v>0.737</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.735</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1296,227 +1230,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="5">
-        <v>5</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="6">
-        <v>30</v>
-      </c>
-      <c r="F20" s="7">
-        <v>4.5833333333333337E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="5">
-        <v>15</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="6">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7">
-        <v>4.5833333333333337E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="5">
-        <v>10</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="6">
-        <v>30</v>
-      </c>
-      <c r="F22" s="7">
-        <v>4.5833333333333337E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="5">
-        <v>5</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="5">
-        <v>32</v>
-      </c>
-      <c r="F23" s="7">
-        <v>4.7222222222222221E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="5">
-        <v>5</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="5">
-        <v>32</v>
-      </c>
-      <c r="F24" s="7">
-        <v>4.7916666666666663E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="5">
-        <v>15</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="5">
-        <v>32</v>
-      </c>
-      <c r="F25" s="7">
-        <v>4.7222222222222221E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="5">
-        <v>5</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="6">
-        <v>30</v>
-      </c>
-      <c r="F27" s="7">
-        <v>4.5833333333333337E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="5">
-        <v>10</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="5">
-        <v>30</v>
-      </c>
-      <c r="F28" s="7">
-        <v>4.5833333333333337E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="5">
-        <v>5</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="5">
-        <v>32</v>
-      </c>
-      <c r="F29" s="7">
-        <v>4.5833333333333337E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="5">
-        <v>10</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="5">
-        <v>32</v>
-      </c>
-      <c r="F30" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A19:F19"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>